--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-0.35/avg_0.003_scores.xlsx
@@ -40,63 +40,57 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>worst</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>disturbing</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -109,43 +103,49 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>…</t>
+    <t>netflix</t>
   </si>
   <si>
     <t>positive</t>
@@ -506,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,7 +514,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
         <v>44</v>
@@ -578,10 +578,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -625,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9134615384615384</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9090909090909091</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -675,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.88</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -725,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.7666666666666667</v>
+        <v>0.76</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8421052631578947</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -793,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.7017543859649122</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,16 +846,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.6206896551724138</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -875,13 +875,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -925,13 +925,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.625</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.5333333333333333</v>
+        <v>0.52</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -975,13 +975,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6875</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -993,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.52</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1025,13 +1025,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.675</v>
+        <v>0.575</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1043,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.4736842105263158</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1075,13 +1075,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.65</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L13">
         <v>9</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1125,13 +1125,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5882352941176471</v>
+        <v>0.45</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1143,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.07285974499089254</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="L14">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="M14">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1018</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1175,13 +1175,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5072463768115942</v>
+        <v>0.375</v>
       </c>
       <c r="C15">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1193,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.01656626506024097</v>
+        <v>0.09107468123861566</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>653</v>
+        <v>998</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1225,13 +1225,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4347826086956522</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1243,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.00576036866359447</v>
+        <v>0.03886925795053003</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1267,21 +1267,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4285714285714285</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1293,21 +1293,45 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17">
+        <v>0.02710843373493976</v>
+      </c>
+      <c r="L17">
+        <v>18</v>
+      </c>
+      <c r="M17">
+        <v>18</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3846153846153846</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1319,21 +1343,45 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>9</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.375</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1345,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3714285714285714</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1371,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3191489361702128</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1397,59 +1445,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.282051282051282</v>
-      </c>
-      <c r="C22">
-        <v>11</v>
-      </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
